--- a/va_facility_data_2025-02-20/Corona VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Corona%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Corona VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Corona%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re817e807be5e45639c78956709dbe552"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb568a89def7c4397960575a93188befd"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re2cb19c3f5a146d9a94dad5af7e8a619"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb7bc79dc28904a2ca95779f2fc916114"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbedc18ffa2334427ae0a3247acac4469"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc8b781b90f5b485cbc646847455d7eac"/>
   </x:sheets>
 </x:workbook>
 </file>
